--- a/data/trans_dic/P35-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P35-Edad-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.09823384337213004</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.1614765639252398</v>
+        <v>0.1614765639252399</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.0543987750722037</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.03002884221876986</v>
+        <v>0.03006547563929374</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03394600454719459</v>
+        <v>0.03467565648275221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07020671060837527</v>
+        <v>0.06970989904411783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1072171936730298</v>
+        <v>0.1103795070285016</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03702144147265813</v>
+        <v>0.03388656222855006</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1075500404407606</v>
+        <v>0.1092750991395795</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08746816672042405</v>
+        <v>0.08660194537643263</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2106617174567264</v>
+        <v>0.217575703591904</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.03803999434505504</v>
+        <v>0.03698142774025873</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07539701762494197</v>
+        <v>0.07473598534645952</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08431612623858997</v>
+        <v>0.08491626321507997</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1745548402523881</v>
+        <v>0.1735535058229438</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06801540338070895</v>
+        <v>0.06757647947510471</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07719811824813697</v>
+        <v>0.07773532869635572</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1307754823643373</v>
+        <v>0.1304299022269458</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2229056885725471</v>
+        <v>0.2236552252773011</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0821315903185616</v>
+        <v>0.07775253668551078</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.173961826907522</v>
+        <v>0.1779502812320046</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1489698152395197</v>
+        <v>0.1477822686297889</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.349200171350855</v>
+        <v>0.340807719262982</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.06707988268307438</v>
+        <v>0.06673601037970432</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1162792299272136</v>
+        <v>0.1162909443277365</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1285582419568216</v>
+        <v>0.1303709424893396</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2573090029733005</v>
+        <v>0.2610583030549342</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.2416451920477068</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.2458235933157767</v>
+        <v>0.2458235933157766</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.06798912227038349</v>
@@ -833,7 +833,7 @@
         <v>0.1840541738572442</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.2488841688346445</v>
+        <v>0.2488841688346446</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02765527859629678</v>
+        <v>0.02569936695892533</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1041200253732474</v>
+        <v>0.1056997827816764</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1035863301195878</v>
+        <v>0.1016041430440579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2051433991956308</v>
+        <v>0.2027980972222084</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0781508193325957</v>
+        <v>0.08091648446553304</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1726200555187756</v>
+        <v>0.175872815355828</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2060832963154192</v>
+        <v>0.2100409687515309</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2066983565436892</v>
+        <v>0.2080441499440373</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05463954158767939</v>
+        <v>0.05552167412461728</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1481136463006663</v>
+        <v>0.1461706092606913</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1628307218413102</v>
+        <v>0.1623569290963509</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2179618251470791</v>
+        <v>0.2157431308709136</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05568265111295356</v>
+        <v>0.05590317435737255</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1624254505466542</v>
+        <v>0.1615122440123822</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1596442065695428</v>
+        <v>0.1591190583859722</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3038964785805021</v>
+        <v>0.3047887858044395</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1311905959570344</v>
+        <v>0.1323930127158434</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.241603441813094</v>
+        <v>0.2437742345201351</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2763990755287989</v>
+        <v>0.2784437775321715</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2913163141138396</v>
+        <v>0.2847752657254872</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08288440517221497</v>
+        <v>0.08267056243593457</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.193351287643649</v>
+        <v>0.1874860485465143</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2096582868846656</v>
+        <v>0.2084834151778996</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2840499300488425</v>
+        <v>0.2795880910072959</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.1984796166942639</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2600363314973644</v>
+        <v>0.2600363314973645</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.127633313927257</v>
@@ -957,7 +957,7 @@
         <v>0.2746828936428026</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.3245405585281391</v>
+        <v>0.3245405585281392</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.1113657594073666</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.07213777357914787</v>
+        <v>0.07135624045951204</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1416081059668806</v>
+        <v>0.1435361183316865</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1679257665659993</v>
+        <v>0.1678333300585819</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2245464341169006</v>
+        <v>0.2250309457656463</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1014005376908272</v>
+        <v>0.09949897039550204</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2428153623048019</v>
+        <v>0.2405636153864575</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2393418709769734</v>
+        <v>0.2428108245049281</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2938139226258256</v>
+        <v>0.2915050277412569</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.09410274405801912</v>
+        <v>0.09466501795806652</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2014840509075905</v>
+        <v>0.2003815212476352</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2156644869489979</v>
+        <v>0.2139152017440332</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2689065516023847</v>
+        <v>0.2682394168327141</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1205615934409702</v>
+        <v>0.1201151703479801</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2050075345889596</v>
+        <v>0.2048235527664864</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2306028259376836</v>
+        <v>0.2360347594641252</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2979000768819213</v>
+        <v>0.3003380432853744</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1575793707772042</v>
+        <v>0.1566230561747214</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3157832870413167</v>
+        <v>0.3121456925814801</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3093284234422256</v>
+        <v>0.3098167093393559</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.354383659993603</v>
+        <v>0.355123402472926</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.130620356358316</v>
+        <v>0.1304599002079833</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2496306797439649</v>
+        <v>0.2471393733162091</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2616171207800593</v>
+        <v>0.2615009245349884</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3163127240097651</v>
+        <v>0.3188765741628572</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.3127948053398407</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3444549315595948</v>
+        <v>0.3444549315595947</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1929711851396868</v>
@@ -1093,7 +1093,7 @@
         <v>0.3526478301136535</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.3760826890515008</v>
+        <v>0.3760826890515009</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.1683674782654524</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1140893306787967</v>
+        <v>0.1136387777109362</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2098683733762968</v>
+        <v>0.2095635444619821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2750869538465349</v>
+        <v>0.2749567721887368</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3110627724205172</v>
+        <v>0.3066973273213978</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.157312364824983</v>
+        <v>0.1601392521122179</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3078523627530336</v>
+        <v>0.3032938285192829</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3188110297469462</v>
+        <v>0.3176169331524563</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3486973659009233</v>
+        <v>0.3507378872929383</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.143874731584635</v>
+        <v>0.1456216152151329</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2683341610289095</v>
+        <v>0.267725677174014</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3032389718273844</v>
+        <v>0.3081902982212532</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3364041291597989</v>
+        <v>0.3372073633981078</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1757735430783928</v>
+        <v>0.1766754283384056</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2858206424648715</v>
+        <v>0.2895057559981188</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3537216271405095</v>
+        <v>0.352780855788659</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.3880909906173366</v>
+        <v>0.3811267617408992</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2282806673794998</v>
+        <v>0.2295635396302318</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3884640417721717</v>
+        <v>0.3862855386873672</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3927049068961886</v>
+        <v>0.3924225629541779</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4065055267171039</v>
+        <v>0.4062836229221229</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1916859193509932</v>
+        <v>0.1919763834124771</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3260187915741842</v>
+        <v>0.3264454659686442</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3605314717963153</v>
+        <v>0.3613754361280511</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3838610685541214</v>
+        <v>0.3852427669158484</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.4398618986166241</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.4439993693967803</v>
+        <v>0.4439993693967804</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3146949910898257</v>
+        <v>0.3164183343302544</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.4100889774844005</v>
+        <v>0.4139104430473852</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3576618606578128</v>
+        <v>0.3549800916651966</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3988268883935303</v>
+        <v>0.4021237969755043</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2836445784239991</v>
+        <v>0.2824532716530692</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.4638381223831654</v>
+        <v>0.4644607577367665</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.4314698588252351</v>
+        <v>0.4273100145966549</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.4189865260218354</v>
+        <v>0.4168341755389793</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3102148366277864</v>
+        <v>0.3083827385529657</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.4541185546697248</v>
+        <v>0.4547277687555371</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.4054125811801592</v>
+        <v>0.4069184580148322</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.4208157086626494</v>
+        <v>0.4194020947821611</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4141810724702886</v>
+        <v>0.4161779150940403</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.5157704589807607</v>
+        <v>0.5136643602850626</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.4507986292763934</v>
+        <v>0.4470487891935058</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.477220150661529</v>
+        <v>0.4792244165082423</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3755368169264028</v>
+        <v>0.37983249949085</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.5651935710642664</v>
+        <v>0.5625254945947209</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.5230773212956905</v>
+        <v>0.5210754095506702</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.4814816244873251</v>
+        <v>0.4783857059985918</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3780627302397813</v>
+        <v>0.3787453120216631</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.5282669543149423</v>
+        <v>0.5245075350469218</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4758483249936789</v>
+        <v>0.472630345609426</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.4698878087729597</v>
+        <v>0.4678879543977832</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.3967082484397512</v>
+        <v>0.3916260195720015</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.465307388448217</v>
+        <v>0.4657171810669207</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.4866657117815175</v>
+        <v>0.4885291772670126</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.4434815605628543</v>
+        <v>0.439013190122557</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.407114421791017</v>
+        <v>0.4148309024938971</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.5039499253440367</v>
+        <v>0.5161774617522661</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.5279563446416813</v>
+        <v>0.5260431593273456</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.4448975815909882</v>
+        <v>0.4473442723098793</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.422621369895164</v>
+        <v>0.4213579805967669</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.5098686142491494</v>
+        <v>0.5108882877050852</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.5259151866238791</v>
+        <v>0.5262550866362653</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.4553921564558072</v>
+        <v>0.4545431506399598</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5175302490708563</v>
+        <v>0.5126126765593005</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.5916286218413644</v>
+        <v>0.5836274585453038</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.5966370950236196</v>
+        <v>0.5952814912683492</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.5262345008396283</v>
+        <v>0.5271854966410243</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5155206202050828</v>
+        <v>0.5220306132678274</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.6203249626507148</v>
+        <v>0.6202662627605039</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.6345160163961454</v>
+        <v>0.6309781993516581</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.5122801674292263</v>
+        <v>0.5159443365066547</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5029386787556609</v>
+        <v>0.4988534403680165</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.5900459608007722</v>
+        <v>0.5892068362019894</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.6000453492175922</v>
+        <v>0.6042831248619323</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.5099596980481567</v>
+        <v>0.5099672531446809</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4618852972444866</v>
+        <v>0.4649410982109153</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.4903241166003372</v>
+        <v>0.4827369937842485</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.4005166944292261</v>
+        <v>0.4049724619211427</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4686729676067393</v>
+        <v>0.4657962115310281</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4168488710759563</v>
+        <v>0.4147187769174961</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4572210974953181</v>
+        <v>0.4605949615311485</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.4136299370366593</v>
+        <v>0.4110614222491155</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4570213889729856</v>
+        <v>0.4621190955492674</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.4502076665266148</v>
+        <v>0.450135268346405</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.488543034402939</v>
+        <v>0.4892670623353152</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.4301453159868758</v>
+        <v>0.4251771413365498</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4742041007798085</v>
+        <v>0.4748939753178438</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.59825209345402</v>
+        <v>0.6009623289084723</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6272419990943034</v>
+        <v>0.625034431297474</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5204066629921505</v>
+        <v>0.5247510805627316</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.5663594493784105</v>
+        <v>0.562473855574405</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5355359958018781</v>
+        <v>0.5386009744097902</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5622561573155447</v>
+        <v>0.5652109032988086</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.5224780386725707</v>
+        <v>0.525184359574303</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.5284972236094896</v>
+        <v>0.5251562695209218</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5433657367846156</v>
+        <v>0.5394189485335102</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.569829781692451</v>
+        <v>0.5741026253144227</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.5122693577203721</v>
+        <v>0.5097858053032874</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.5291357025299882</v>
+        <v>0.5318297170500335</v>
       </c>
     </row>
     <row r="25">
@@ -1649,7 +1649,7 @@
         <v>0.3144433408234503</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.3617679223619268</v>
+        <v>0.3617679223619267</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1618790034667663</v>
+        <v>0.1610217958874227</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.2424174841535716</v>
+        <v>0.2443383346915504</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2623808863196402</v>
+        <v>0.2626765288600764</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.3266271626839257</v>
+        <v>0.3258603084516956</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2011412083511215</v>
+        <v>0.2013625852219477</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3287876526623422</v>
+        <v>0.3283642544564765</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3320458049702809</v>
+        <v>0.3321472413755874</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.3642433778577643</v>
+        <v>0.3650458338340339</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1858626629747316</v>
+        <v>0.1862731423471774</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2914017719481765</v>
+        <v>0.2917978565244086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.3028065002492183</v>
+        <v>0.3027796751298966</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.3511417138325709</v>
+        <v>0.3510172983043317</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1877820828488352</v>
+        <v>0.1890591628850223</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2737754299141041</v>
+        <v>0.2757498311356996</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2951656380351427</v>
+        <v>0.2942425485724458</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.3607083302128785</v>
+        <v>0.361688283628055</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2315426733103312</v>
+        <v>0.2307072994517462</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3605908206756354</v>
+        <v>0.3598665922058754</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3661004872815178</v>
+        <v>0.3646780896124355</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.3941292851989503</v>
+        <v>0.3930080680151773</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2051940634276905</v>
+        <v>0.2055007825530351</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3145482193926855</v>
+        <v>0.3150708786514536</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3262220017089578</v>
+        <v>0.3247852064127705</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.372670042852864</v>
+        <v>0.372489191071504</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>14128</v>
+        <v>14145</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>14937</v>
+        <v>15259</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>28670</v>
+        <v>28467</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>43722</v>
+        <v>45012</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>16428</v>
+        <v>15037</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>44886</v>
+        <v>45606</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>34065</v>
+        <v>33728</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>76367</v>
+        <v>78874</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>34776</v>
+        <v>33809</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>64644</v>
+        <v>64078</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>67269</v>
+        <v>67748</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>134460</v>
+        <v>133689</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>31999</v>
+        <v>31793</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>33970</v>
+        <v>34206</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>53404</v>
+        <v>53263</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>90899</v>
+        <v>91205</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>36445</v>
+        <v>34502</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>72604</v>
+        <v>74268</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>58017</v>
+        <v>57555</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>126589</v>
+        <v>123547</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>61325</v>
+        <v>61011</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>99696</v>
+        <v>99706</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>102566</v>
+        <v>104013</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>198206</v>
+        <v>201095</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>19412</v>
+        <v>18039</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>69411</v>
+        <v>70464</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>60361</v>
+        <v>59206</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>97831</v>
+        <v>96712</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>45968</v>
+        <v>47595</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>102207</v>
+        <v>104133</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>115024</v>
+        <v>117232</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>103573</v>
+        <v>104247</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>70491</v>
+        <v>71629</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>186436</v>
+        <v>183990</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>185766</v>
+        <v>185225</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>213161</v>
+        <v>210991</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>39085</v>
+        <v>39240</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>108279</v>
+        <v>107671</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>93026</v>
+        <v>92720</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>144925</v>
+        <v>145351</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>77166</v>
+        <v>77873</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>143052</v>
+        <v>144338</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>154270</v>
+        <v>155411</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>145974</v>
+        <v>142696</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>106930</v>
+        <v>106654</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>243378</v>
+        <v>235995</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>239189</v>
+        <v>237849</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>277793</v>
+        <v>273430</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>44200</v>
+        <v>43721</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>92683</v>
+        <v>93945</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>110588</v>
+        <v>110527</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>139407</v>
+        <v>139708</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>66116</v>
+        <v>64876</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>168148</v>
+        <v>166589</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>155796</v>
+        <v>158054</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>182397</v>
+        <v>180963</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>119016</v>
+        <v>119727</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>271399</v>
+        <v>269914</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>282409</v>
+        <v>280118</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>333882</v>
+        <v>333053</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>73870</v>
+        <v>73596</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>134178</v>
+        <v>134058</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>151863</v>
+        <v>155441</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>184947</v>
+        <v>186461</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>102746</v>
+        <v>102122</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>218678</v>
+        <v>216159</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>201352</v>
+        <v>201670</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>219998</v>
+        <v>220457</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>165201</v>
+        <v>164998</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>336252</v>
+        <v>332896</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>342583</v>
+        <v>342431</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>392742</v>
+        <v>395926</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55683</v>
+        <v>55463</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>125768</v>
+        <v>125585</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>176295</v>
+        <v>176212</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>217936</v>
+        <v>214877</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>76994</v>
+        <v>78378</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>184238</v>
+        <v>181510</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>203893</v>
+        <v>203129</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>256562</v>
+        <v>258063</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>140637</v>
+        <v>142345</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>321392</v>
+        <v>320664</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>388271</v>
+        <v>394611</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>483208</v>
+        <v>484361</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>85788</v>
+        <v>86229</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>171283</v>
+        <v>173492</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>226690</v>
+        <v>226087</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>271903</v>
+        <v>267024</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>111729</v>
+        <v>112357</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>232481</v>
+        <v>231178</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>251151</v>
+        <v>250971</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>299096</v>
+        <v>298933</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>187373</v>
+        <v>187657</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>390483</v>
+        <v>390994</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>461629</v>
+        <v>462709</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>551374</v>
+        <v>553359</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>115595</v>
+        <v>116228</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>173059</v>
+        <v>174672</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>169126</v>
+        <v>167858</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>243024</v>
+        <v>245033</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>111453</v>
+        <v>110985</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>199526</v>
+        <v>199794</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>211588</v>
+        <v>209548</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>254648</v>
+        <v>253340</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>235842</v>
+        <v>234449</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>386985</v>
+        <v>387504</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>390515</v>
+        <v>391966</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>512182</v>
+        <v>510462</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>152138</v>
+        <v>152872</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>217657</v>
+        <v>216768</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>213167</v>
+        <v>211394</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>290792</v>
+        <v>292013</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>147560</v>
+        <v>149248</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>243126</v>
+        <v>241978</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>256511</v>
+        <v>255530</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>292631</v>
+        <v>290749</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>287424</v>
+        <v>287943</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>450172</v>
+        <v>446968</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>458363</v>
+        <v>455263</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>571909</v>
+        <v>569475</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>112418</v>
+        <v>110978</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>141347</v>
+        <v>141472</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>158688</v>
+        <v>159295</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>180532</v>
+        <v>178713</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>131525</v>
+        <v>134018</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>173042</v>
+        <v>177241</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>194636</v>
+        <v>193931</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>195112</v>
+        <v>196185</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>256296</v>
+        <v>255530</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>329958</v>
+        <v>330618</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>365370</v>
+        <v>365606</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>385095</v>
+        <v>384377</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>146656</v>
+        <v>145263</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>179720</v>
+        <v>177290</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>194546</v>
+        <v>194104</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>214220</v>
+        <v>214607</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>166547</v>
+        <v>168650</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>213002</v>
+        <v>212982</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>233921</v>
+        <v>232616</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>224663</v>
+        <v>226269</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>305004</v>
+        <v>302526</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>381845</v>
+        <v>381302</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>416870</v>
+        <v>419814</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>431239</v>
+        <v>431245</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>93928</v>
+        <v>94549</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>118319</v>
+        <v>116488</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>100166</v>
+        <v>101280</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>145381</v>
+        <v>144489</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>132826</v>
+        <v>132147</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>172909</v>
+        <v>174185</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>164967</v>
+        <v>163942</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>212149</v>
+        <v>214516</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>235008</v>
+        <v>234971</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>302644</v>
+        <v>303092</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>279129</v>
+        <v>275905</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>367223</v>
+        <v>367757</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>121659</v>
+        <v>122210</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>151359</v>
+        <v>150826</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>130149</v>
+        <v>131236</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>175684</v>
+        <v>174478</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>170645</v>
+        <v>171621</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>212631</v>
+        <v>213748</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>208378</v>
+        <v>209458</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>245328</v>
+        <v>243778</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>283637</v>
+        <v>281577</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>352999</v>
+        <v>355646</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>332421</v>
+        <v>330809</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>409762</v>
+        <v>411848</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>506232</v>
+        <v>503551</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>806652</v>
+        <v>813044</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>876226</v>
+        <v>877214</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>1153896</v>
+        <v>1151187</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>645268</v>
+        <v>645978</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1135012</v>
+        <v>1133551</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1160815</v>
+        <v>1161170</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>1358877</v>
+        <v>1361870</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1177488</v>
+        <v>1180088</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1975601</v>
+        <v>1978287</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>2069824</v>
+        <v>2069641</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>2550499</v>
+        <v>2549595</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>587236</v>
+        <v>591230</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>910997</v>
+        <v>917567</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>985712</v>
+        <v>982629</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>1274297</v>
+        <v>1277759</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>742797</v>
+        <v>740117</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1244801</v>
+        <v>1242301</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1279869</v>
+        <v>1274896</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>1470371</v>
+        <v>1466189</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1299957</v>
+        <v>1301900</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2132526</v>
+        <v>2136070</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2229880</v>
+        <v>2220059</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>2706868</v>
+        <v>2705555</v>
       </c>
     </row>
     <row r="36">
